--- a/biology/Botanique/Paeonia_peregrina/Paeonia_peregrina.xlsx
+++ b/biology/Botanique/Paeonia_peregrina/Paeonia_peregrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pivoine voyageuse, Pivoine peregrina
-Paeonia peregrina, la Pivoine voyageuse[2] ou encore Pivoine peregrina[3], est une espèce de plantes à fleurs de la famille des Paeoniaceae (les pivoines).
+Paeonia peregrina, la Pivoine voyageuse ou encore Pivoine peregrina, est une espèce de plantes à fleurs de la famille des Paeoniaceae (les pivoines).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Paeonia peregrina a été décrite en 1768 par le botaniste britannique Philip Miller (1691-1771)[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Paeonia peregrina a été décrite en 1768 par le botaniste britannique Philip Miller (1691-1771),.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire de l'Europe du Sud-Est et de la Turquie. 
 </t>
@@ -574,12 +590,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace à rhizomes charnus. Elle peut atteindre 60 cm de hauteur[3].
-Elle possède un feuillage caduc composé folioles de couleur vert sombre. Elle possède des fleurs rouges simples, d'un diamètre de 10 à 13 cm, avec des étamines jaunes proéminentes. Elles commencent à éclore au printemps[6]. On peut généralement la floraison de mai jusqu'à juin[7].
-Après la floraison, la plante donne des graines rondes de couleur noire qui germent après avoir été exposées au froid[2].  
-Le cultivar 'Otto Froebel' a remporté le prix du mérite du jardin de la Royal Horticultural Society[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace à rhizomes charnus. Elle peut atteindre 60 cm de hauteur.
+Elle possède un feuillage caduc composé folioles de couleur vert sombre. Elle possède des fleurs rouges simples, d'un diamètre de 10 à 13 cm, avec des étamines jaunes proéminentes. Elles commencent à éclore au printemps. On peut généralement la floraison de mai jusqu'à juin.
+Après la floraison, la plante donne des graines rondes de couleur noire qui germent après avoir été exposées au froid.  
+Le cultivar 'Otto Froebel' a remporté le prix du mérite du jardin de la Royal Horticultural Society,.
 			Graines.
 			Fleur.
 			Plante mature.
@@ -611,9 +629,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 novembre 2022)[10] (liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 novembre 2022) (liste brute contenant possiblement des synonymes) :
 variété Paeonia peregrina var. cretica (Tausch) Huth
 variété Paeonia peregrina var. glabra Boiss.
 variété Paeonia peregrina var. villosa Huth</t>
@@ -644,9 +664,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante affectionne les sols plutôt calcaires, ensoleillés ou mi-ombragés entre 50 et 1 500 m d'altitude[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante affectionne les sols plutôt calcaires, ensoleillés ou mi-ombragés entre 50 et 1 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -675,9 +697,11 @@
           <t>Référence à Paeonia peregrina</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ville de Bozhurishte[12] en Bulgarie tient son nom des prairies de pivoines sauvages, notamment des pivoines voyageuses, qui poussaient sur le territoire de la commune à sa création[13].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ville de Bozhurishte en Bulgarie tient son nom des prairies de pivoines sauvages, notamment des pivoines voyageuses, qui poussaient sur le territoire de la commune à sa création.
 </t>
         </is>
       </c>
@@ -706,7 +730,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Philip Miller, The Gardeners Dictionary,  (œuvre écrite)</t>
         </is>
